--- a/REGULAR/CTO/TAMAYO, MARIA ELAINE III BAY.xlsx
+++ b/REGULAR/CTO/TAMAYO, MARIA ELAINE III BAY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>UT(0-2-14)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-29)</t>
   </si>
 </sst>
 </file>
@@ -648,26 +654,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1181,7 +1187,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K94" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K95" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1540,11 +1546,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K94"/>
+  <dimension ref="A2:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,16 +1580,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="57"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1596,18 +1602,18 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="57">
         <v>41426</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="59">
+      <c r="J3" s="58">
         <v>416384295</v>
       </c>
-      <c r="K3" s="60"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1620,16 +1626,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1655,18 +1661,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1713,7 +1719,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>46.646999999999998</v>
+        <v>45.587000000000003</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -2893,11 +2899,15 @@
       <c r="A67" s="34">
         <v>44682</v>
       </c>
-      <c r="B67" s="21"/>
+      <c r="B67" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="C67" s="14">
         <v>1.25</v>
       </c>
-      <c r="D67" s="35"/>
+      <c r="D67" s="35">
+        <v>1</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="21"/>
       <c r="G67" s="14">
@@ -2907,118 +2917,116 @@
       <c r="H67" s="35"/>
       <c r="I67" s="9"/>
       <c r="J67" s="12"/>
-      <c r="K67" s="21"/>
+      <c r="K67" s="50">
+        <v>44691</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="34">
-        <v>44713</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C68" s="14">
-        <v>1.25</v>
-      </c>
+      <c r="A68" s="34"/>
+      <c r="B68" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="14"/>
       <c r="D68" s="35">
-        <v>2</v>
+        <v>6.0000000000000019E-2</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="21"/>
-      <c r="G68" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G68" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H68" s="35"/>
       <c r="I68" s="9"/>
       <c r="J68" s="12"/>
-      <c r="K68" s="21" t="s">
-        <v>73</v>
-      </c>
+      <c r="K68" s="50"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
-      <c r="B69" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" s="14"/>
+      <c r="A69" s="34">
+        <v>44713</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D69" s="35">
-        <v>0.27900000000000003</v>
+        <v>2</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="21"/>
-      <c r="G69" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G69" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H69" s="35"/>
       <c r="I69" s="9"/>
       <c r="J69" s="12"/>
-      <c r="K69" s="21"/>
+      <c r="K69" s="21" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="34">
-        <v>44743</v>
-      </c>
+      <c r="A70" s="34"/>
       <c r="B70" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" s="14">
-        <v>1.25</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C70" s="14"/>
       <c r="D70" s="35">
-        <v>2</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="21"/>
-      <c r="G70" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G70" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H70" s="35"/>
       <c r="I70" s="9"/>
       <c r="J70" s="12"/>
-      <c r="K70" s="21" t="s">
-        <v>71</v>
-      </c>
+      <c r="K70" s="21"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="34"/>
+      <c r="A71" s="34">
+        <v>44743</v>
+      </c>
       <c r="B71" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="C71" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D71" s="35">
-        <v>0.16700000000000001</v>
+        <v>2</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="21"/>
-      <c r="G71" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G71" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H71" s="35"/>
       <c r="I71" s="9"/>
       <c r="J71" s="12"/>
-      <c r="K71" s="21"/>
+      <c r="K71" s="21" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="34">
-        <v>44774</v>
-      </c>
+      <c r="A72" s="34"/>
       <c r="B72" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="14">
-        <v>1.25</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C72" s="14"/>
       <c r="D72" s="35">
-        <v>0.129</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="21"/>
-      <c r="G72" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G72" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H72" s="35"/>
       <c r="I72" s="9"/>
@@ -3027,16 +3035,16 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="34">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C73" s="14">
         <v>1.25</v>
       </c>
       <c r="D73" s="35">
-        <v>6.200000000000002E-2</v>
+        <v>0.129</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="21"/>
@@ -3051,16 +3059,16 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="34">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C74" s="14">
         <v>1.25</v>
       </c>
       <c r="D74" s="35">
-        <v>0.11200000000000002</v>
+        <v>6.200000000000002E-2</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="21"/>
@@ -3075,17 +3083,16 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="34">
-        <f>EDATE(A74,1)</f>
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C75" s="14">
         <v>1.25</v>
       </c>
       <c r="D75" s="35">
-        <v>0.17700000000000002</v>
+        <v>0.11200000000000002</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="21"/>
@@ -3100,94 +3107,98 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="34">
-        <f t="shared" ref="A76:A83" si="1">EDATE(A75,1)</f>
+        <f>EDATE(A75,1)</f>
+        <v>44866</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D76" s="35">
+        <v>0.17700000000000002</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H76" s="35"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="21"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="34">
+        <f t="shared" ref="A77:A84" si="1">EDATE(A76,1)</f>
         <v>44896</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B77" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D76" s="37">
+      <c r="C77" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D77" s="37">
         <v>5</v>
       </c>
-      <c r="E76" s="10"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="36">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H76" s="37"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="52">
+      <c r="E77" s="10"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="36">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H77" s="37"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="52">
         <v>44922</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
-      <c r="B77" s="21" t="s">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="34"/>
+      <c r="B78" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="35">
+      <c r="C78" s="14"/>
+      <c r="D78" s="35">
         <v>0.42699999999999999</v>
       </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H77" s="35"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="50"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
+      <c r="E78" s="9"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H78" s="35"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="50"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B78" s="16"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="36" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H78" s="37"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="16"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="34">
-        <f>EDATE(A76,1)</f>
-        <v>44927</v>
-      </c>
-      <c r="B79" s="21"/>
-      <c r="C79" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D79" s="35"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H79" s="35"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="21"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="36" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H79" s="37"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="16"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="34">
-        <f t="shared" si="1"/>
-        <v>44958</v>
+        <f>EDATE(A77,1)</f>
+        <v>44927</v>
       </c>
       <c r="B80" s="21"/>
       <c r="C80" s="14">
@@ -3208,17 +3219,13 @@
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="34">
         <f t="shared" si="1"/>
-        <v>44986</v>
-      </c>
-      <c r="B81" s="21" t="s">
-        <v>63</v>
-      </c>
+        <v>44958</v>
+      </c>
+      <c r="B81" s="21"/>
       <c r="C81" s="14">
         <v>1.25</v>
       </c>
-      <c r="D81" s="35">
-        <v>2</v>
-      </c>
+      <c r="D81" s="35"/>
       <c r="E81" s="9"/>
       <c r="F81" s="21"/>
       <c r="G81" s="14">
@@ -3228,20 +3235,22 @@
       <c r="H81" s="35"/>
       <c r="I81" s="9"/>
       <c r="J81" s="12"/>
-      <c r="K81" s="21" t="s">
-        <v>64</v>
-      </c>
+      <c r="K81" s="21"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="34">
         <f t="shared" si="1"/>
-        <v>45017</v>
-      </c>
-      <c r="B82" s="21"/>
+        <v>44986</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="C82" s="14">
         <v>1.25</v>
       </c>
-      <c r="D82" s="35"/>
+      <c r="D82" s="35">
+        <v>2</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="21"/>
       <c r="G82" s="14">
@@ -3251,40 +3260,43 @@
       <c r="H82" s="35"/>
       <c r="I82" s="9"/>
       <c r="J82" s="12"/>
-      <c r="K82" s="21"/>
+      <c r="K82" s="21" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="34">
         <f t="shared" si="1"/>
-        <v>45047</v>
-      </c>
-      <c r="B83" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="35">
-        <v>1</v>
-      </c>
+        <v>45017</v>
+      </c>
+      <c r="B83" s="21"/>
+      <c r="C83" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D83" s="35"/>
       <c r="E83" s="9"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="35"/>
       <c r="I83" s="9"/>
       <c r="J83" s="12"/>
-      <c r="K83" s="50">
-        <v>45061</v>
-      </c>
+      <c r="K83" s="21"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
+      <c r="A84" s="34">
+        <f t="shared" si="1"/>
+        <v>45047</v>
+      </c>
       <c r="B84" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C84" s="14"/>
-      <c r="D84" s="35"/>
+      <c r="D84" s="35">
+        <v>1</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="21"/>
       <c r="G84" s="14" t="str">
@@ -3295,12 +3307,14 @@
       <c r="I84" s="9"/>
       <c r="J84" s="12"/>
       <c r="K84" s="50">
-        <v>45065</v>
+        <v>45061</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="34"/>
-      <c r="B85" s="21"/>
+      <c r="B85" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="C85" s="14"/>
       <c r="D85" s="35"/>
       <c r="E85" s="9"/>
@@ -3312,7 +3326,9 @@
       <c r="H85" s="35"/>
       <c r="I85" s="9"/>
       <c r="J85" s="12"/>
-      <c r="K85" s="21"/>
+      <c r="K85" s="50">
+        <v>45065</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="34"/>
@@ -3443,34 +3459,50 @@
       <c r="K93" s="21"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="51"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="37"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="36" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H94" s="37"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="13"/>
-      <c r="K94" s="16"/>
+      <c r="A94" s="34"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H94" s="35"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="21"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="51"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="36" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H95" s="37"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3536,16 +3568,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="57"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3558,18 +3590,18 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="57">
         <v>41426</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="59">
+      <c r="J3" s="58">
         <v>416384295</v>
       </c>
-      <c r="K3" s="60"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3582,14 +3614,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3615,18 +3647,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4699,14 +4731,14 @@
       <c r="B3" s="40"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="12">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.27900000000000003</v>
+        <v>6.0000000000000019E-2</v>
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="47">

--- a/REGULAR/CTO/TAMAYO, MARIA ELAINE III BAY.xlsx
+++ b/REGULAR/CTO/TAMAYO, MARIA ELAINE III BAY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="79">
   <si>
     <t>PERIOD</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>UT(0-0-29)</t>
+  </si>
+  <si>
+    <t>UT(0-0-44)</t>
+  </si>
+  <si>
+    <t>UT(0-0-9)</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1556,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,7 +1725,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>45.587000000000003</v>
+        <v>45.475999999999999</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -2859,11 +2865,15 @@
       <c r="A65" s="34">
         <v>44621</v>
       </c>
-      <c r="B65" s="21"/>
+      <c r="B65" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="C65" s="14">
         <v>1.25</v>
       </c>
-      <c r="D65" s="35"/>
+      <c r="D65" s="35">
+        <v>1.9000000000000003E-2</v>
+      </c>
       <c r="E65" s="9"/>
       <c r="F65" s="21"/>
       <c r="G65" s="14">
@@ -2879,11 +2889,15 @@
       <c r="A66" s="34">
         <v>44652</v>
       </c>
-      <c r="B66" s="21"/>
+      <c r="B66" s="21" t="s">
+        <v>77</v>
+      </c>
       <c r="C66" s="14">
         <v>1.25</v>
       </c>
-      <c r="D66" s="35"/>
+      <c r="D66" s="35">
+        <v>9.1999999999999998E-2</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="21"/>
       <c r="G66" s="14">
@@ -4734,11 +4748,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="12">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>6.0000000000000019E-2</v>
+        <v>1.9000000000000003E-2</v>
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="47">

--- a/REGULAR/CTO/TAMAYO, MARIA ELAINE III BAY.xlsx
+++ b/REGULAR/CTO/TAMAYO, MARIA ELAINE III BAY.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="86">
   <si>
     <t>PERIOD</t>
   </si>
@@ -269,6 +269,27 @@
   </si>
   <si>
     <t>UT(0-0-9)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>5/15,23/2023</t>
+  </si>
+  <si>
+    <t>UT(0-2-48)</t>
+  </si>
+  <si>
+    <t>UT(0-0-31)</t>
+  </si>
+  <si>
+    <t>2/3,13/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-17)</t>
+  </si>
+  <si>
+    <t>UT(0-0-40)</t>
   </si>
 </sst>
 </file>
@@ -660,14 +681,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -677,9 +701,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1193,7 +1214,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K95" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K101" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1552,11 +1573,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K95"/>
+  <dimension ref="A2:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
+      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,16 +1607,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="54"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1608,18 +1629,18 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="58">
         <v>41426</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58">
+      <c r="J3" s="59">
         <v>416384295</v>
       </c>
-      <c r="K3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1632,16 +1653,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1667,18 +1688,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1725,7 +1746,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>45.475999999999999</v>
+        <v>49.851000000000006</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1735,7 +1756,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3146,7 +3167,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="34">
-        <f t="shared" ref="A77:A84" si="1">EDATE(A76,1)</f>
+        <f t="shared" ref="A77:A100" si="1">EDATE(A76,1)</f>
         <v>44896</v>
       </c>
       <c r="B77" s="16" t="s">
@@ -3214,11 +3235,15 @@
         <f>EDATE(A77,1)</f>
         <v>44927</v>
       </c>
-      <c r="B80" s="21"/>
+      <c r="B80" s="21" t="s">
+        <v>75</v>
+      </c>
       <c r="C80" s="14">
         <v>1.25</v>
       </c>
-      <c r="D80" s="35"/>
+      <c r="D80" s="35">
+        <v>1</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="21"/>
       <c r="G80" s="14">
@@ -3228,36 +3253,37 @@
       <c r="H80" s="35"/>
       <c r="I80" s="9"/>
       <c r="J80" s="12"/>
-      <c r="K80" s="21"/>
+      <c r="K80" s="50">
+        <v>44953</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="34">
-        <f t="shared" si="1"/>
-        <v>44958</v>
-      </c>
-      <c r="B81" s="21"/>
-      <c r="C81" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D81" s="35"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="14"/>
+      <c r="D81" s="35">
+        <v>8.3000000000000018E-2</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="21"/>
-      <c r="G81" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G81" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H81" s="35"/>
       <c r="I81" s="9"/>
       <c r="J81" s="12"/>
-      <c r="K81" s="21"/>
+      <c r="K81" s="50"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="34">
-        <f t="shared" si="1"/>
-        <v>44986</v>
+        <f>EDATE(A80,1)</f>
+        <v>44958</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C82" s="14">
         <v>1.25</v>
@@ -3275,24 +3301,23 @@
       <c r="I82" s="9"/>
       <c r="J82" s="12"/>
       <c r="K82" s="21" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="34">
-        <f t="shared" si="1"/>
-        <v>45017</v>
-      </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D83" s="35"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="D83" s="35">
+        <v>3.5000000000000017E-2</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G83" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H83" s="35"/>
       <c r="I83" s="9"/>
@@ -3301,36 +3326,40 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="34">
-        <f t="shared" si="1"/>
-        <v>45047</v>
+        <f>EDATE(A82,1)</f>
+        <v>44986</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C84" s="14"/>
+        <v>63</v>
+      </c>
+      <c r="C84" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="21"/>
-      <c r="G84" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="35"/>
       <c r="I84" s="9"/>
       <c r="J84" s="12"/>
-      <c r="K84" s="50">
-        <v>45061</v>
+      <c r="K84" s="21" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="34"/>
       <c r="B85" s="21" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C85" s="14"/>
-      <c r="D85" s="35"/>
+      <c r="D85" s="35">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="E85" s="9"/>
       <c r="F85" s="21"/>
       <c r="G85" s="14" t="str">
@@ -3340,20 +3369,27 @@
       <c r="H85" s="35"/>
       <c r="I85" s="9"/>
       <c r="J85" s="12"/>
-      <c r="K85" s="50">
-        <v>45065</v>
-      </c>
+      <c r="K85" s="21"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="34"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="35"/>
+      <c r="A86" s="34">
+        <f>EDATE(A84,1)</f>
+        <v>45017</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D86" s="35">
+        <v>0.35</v>
+      </c>
       <c r="E86" s="9"/>
       <c r="F86" s="21"/>
-      <c r="G86" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="35"/>
       <c r="I86" s="9"/>
@@ -3361,26 +3397,41 @@
       <c r="K86" s="21"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="34"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="35"/>
+      <c r="A87" s="34">
+        <f t="shared" si="1"/>
+        <v>45047</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D87" s="35">
+        <v>1</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="21"/>
-      <c r="G87" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="35"/>
       <c r="I87" s="9"/>
       <c r="J87" s="12"/>
-      <c r="K87" s="21"/>
+      <c r="K87" s="50">
+        <v>45061</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="34"/>
-      <c r="B88" s="21"/>
+      <c r="B88" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="C88" s="14"/>
-      <c r="D88" s="35"/>
+      <c r="D88" s="35">
+        <v>2</v>
+      </c>
       <c r="E88" s="9"/>
       <c r="F88" s="21"/>
       <c r="G88" s="14" t="str">
@@ -3390,13 +3441,19 @@
       <c r="H88" s="35"/>
       <c r="I88" s="9"/>
       <c r="J88" s="12"/>
-      <c r="K88" s="21"/>
+      <c r="K88" s="50" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="34"/>
-      <c r="B89" s="21"/>
+      <c r="B89" s="21" t="s">
+        <v>77</v>
+      </c>
       <c r="C89" s="14"/>
-      <c r="D89" s="35"/>
+      <c r="D89" s="35">
+        <v>9.1999999999999998E-2</v>
+      </c>
       <c r="E89" s="9"/>
       <c r="F89" s="21"/>
       <c r="G89" s="14" t="str">
@@ -3406,34 +3463,48 @@
       <c r="H89" s="35"/>
       <c r="I89" s="9"/>
       <c r="J89" s="12"/>
-      <c r="K89" s="21"/>
+      <c r="K89" s="50"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="34"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="14"/>
+      <c r="A90" s="34">
+        <f>EDATE(A87,1)</f>
+        <v>45078</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C90" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="35"/>
       <c r="E90" s="9"/>
       <c r="F90" s="21"/>
-      <c r="G90" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="35"/>
       <c r="I90" s="9"/>
       <c r="J90" s="12"/>
-      <c r="K90" s="21"/>
+      <c r="K90" s="50">
+        <v>45065</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="34"/>
+      <c r="A91" s="34">
+        <f t="shared" si="1"/>
+        <v>45108</v>
+      </c>
       <c r="B91" s="21"/>
-      <c r="C91" s="14"/>
+      <c r="C91" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="35"/>
       <c r="E91" s="9"/>
       <c r="F91" s="21"/>
-      <c r="G91" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="35"/>
       <c r="I91" s="9"/>
@@ -3441,15 +3512,20 @@
       <c r="K91" s="21"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="34"/>
+      <c r="A92" s="34">
+        <f t="shared" si="1"/>
+        <v>45139</v>
+      </c>
       <c r="B92" s="21"/>
-      <c r="C92" s="14"/>
+      <c r="C92" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D92" s="35"/>
       <c r="E92" s="9"/>
       <c r="F92" s="21"/>
-      <c r="G92" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G92" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H92" s="35"/>
       <c r="I92" s="9"/>
@@ -3457,15 +3533,20 @@
       <c r="K92" s="21"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
+      <c r="A93" s="34">
+        <f t="shared" si="1"/>
+        <v>45170</v>
+      </c>
       <c r="B93" s="21"/>
-      <c r="C93" s="14"/>
+      <c r="C93" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="35"/>
       <c r="E93" s="9"/>
       <c r="F93" s="21"/>
-      <c r="G93" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G93" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H93" s="35"/>
       <c r="I93" s="9"/>
@@ -3473,15 +3554,20 @@
       <c r="K93" s="21"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="34"/>
+      <c r="A94" s="34">
+        <f t="shared" si="1"/>
+        <v>45200</v>
+      </c>
       <c r="B94" s="21"/>
-      <c r="C94" s="14"/>
+      <c r="C94" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="35"/>
       <c r="E94" s="9"/>
       <c r="F94" s="21"/>
-      <c r="G94" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="35"/>
       <c r="I94" s="9"/>
@@ -3489,34 +3575,151 @@
       <c r="K94" s="21"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="51"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="37"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="36" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H95" s="37"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="13"/>
-      <c r="K95" s="16"/>
+      <c r="A95" s="34">
+        <f t="shared" si="1"/>
+        <v>45231</v>
+      </c>
+      <c r="B95" s="21"/>
+      <c r="C95" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D95" s="35"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H95" s="35"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="21"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="34">
+        <f t="shared" si="1"/>
+        <v>45261</v>
+      </c>
+      <c r="B96" s="21"/>
+      <c r="C96" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D96" s="35"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H96" s="35"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="21"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B97" s="21"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H97" s="35"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="21"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="34">
+        <f>EDATE(A96,1)</f>
+        <v>45292</v>
+      </c>
+      <c r="B98" s="21"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H98" s="35"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="21"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="34">
+        <f t="shared" si="1"/>
+        <v>45323</v>
+      </c>
+      <c r="B99" s="21"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H99" s="35"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="21"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="34">
+        <f t="shared" si="1"/>
+        <v>45352</v>
+      </c>
+      <c r="B100" s="21"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H100" s="35"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="21"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="51"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="36" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H101" s="37"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3582,16 +3785,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="54"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3604,18 +3807,18 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="58">
         <v>41426</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58">
+      <c r="J3" s="59">
         <v>416384295</v>
       </c>
-      <c r="K3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3628,14 +3831,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3661,18 +3864,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4744,15 +4947,13 @@
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="12">
-        <v>0</v>
-      </c>
+      <c r="E3" s="12"/>
       <c r="F3" s="12">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.9000000000000003E-2</v>
+        <v>8.3000000000000018E-2</v>
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="47">
